--- a/input/games.xlsx
+++ b/input/games.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lanxin/Projects/switch_etl/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC64A526-0DD7-484E-9B2B-5AF7B5A5A42A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFEA035B-3228-FE42-8C71-9F87A66369A3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{BCA681C4-3AE1-0E44-AE5D-DB9F1004FBF1}"/>
+    <workbookView xWindow="-43460" yWindow="5500" windowWidth="33600" windowHeight="20540" xr2:uid="{BCA681C4-3AE1-0E44-AE5D-DB9F1004FBF1}"/>
   </bookViews>
   <sheets>
     <sheet name="列表" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1677" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1677" uniqueCount="545">
   <si>
     <t>超级爆裂网球</t>
   </si>
@@ -1611,13 +1611,6 @@
     <t>Ultimate Chicken Horse</t>
   </si>
   <si>
-    <t>基础内核是平台跳跃，游戏本身的特色是，每一轮每个玩家都需要选择一个设施来搭在地图上，一方面为自己创造到达终点的路线，另一方面则是阻碍其他玩家。顺利到达终点会获得分数，达成某些条件也会有额外的奖励分。
-分数达到目标，玩家就会赢得胜利。如果经过若干轮之后还未有人能达到目标，则会自动选择分数最高的人直接获胜。</t>
-  </si>
-  <si>
-    <t>想要玩得开心，需要参与者都具备基本的平台跳跃游戏经验，具体的说，必须掌握这些技巧：加速跳、根据按键力度不同来控制跳跃高度、在跳跃过程中控制方向调整落点位置、单侧扒墙跳。这些都是比较常规的平台跳跃游戏技巧，如果通关过任意一款平台跳跃游戏，自然都能掌握。如果玩家不具备相应的基础，玩起来会很折磨人。用秘籍开启全地图后，可以选择的地图有十几张之多，耐玩度大大提升，不同的地图有不同的乐趣，换着地图玩甚至足够撑起一整个聚会的时间。</t>
-  </si>
-  <si>
     <t>随动回旋镖</t>
   </si>
   <si>
@@ -1680,6 +1673,22 @@
   </si>
   <si>
     <t>大乱斗的角色都是知名的游戏角色，技能做得很还原，对游戏玩家来说有情怀加成。因为角色数量很多，而且道具创造了很多可能性，加上不同的地图带来不一样的作战策略，重复游玩的体验会非常好。</t>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>想要玩得开心，需要参与者都具备基本的平台跳跃游戏经验，具体的说，必须掌握这些技巧：加速跳、根据按键力度不同来控制跳跃高度、在跳跃过程中控制方向调整落点位置、单侧扒墙跳。这些都是比较常规的平台跳跃游戏技巧，如果通关过任意一款平台跳跃游戏，自然都能掌握。如果玩家不具备相应的基础，玩起来会很折磨人。用秘籍开启全地图后，可以选择的地图有十几张之多，耐玩度大大提升，不同的地图有不同的乐趣，换着地图玩甚至足够撑起一整个聚会的时间。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这款游戏主打平台跳跃+关卡设计。每一轮会让玩家选择一个设施放到地图上。然后需要向着终点进发，如果你到达了终点而对手没有，则可获得分数。游戏的乐趣就在于关卡设计的部分，既要阻碍对手，又要让自己能顺利通过。这就涉及到谋划布局还有平台跳跃水平了。脑洞越大，欢乐越多，各种奇葩的设计使得聚会中充满了快活的空气。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ultimate Chicken Horse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2148,10 +2157,10 @@
   <dimension ref="A1:AE94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="T2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V3" sqref="V3"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2284,7 +2293,7 @@
     </row>
     <row r="2" spans="1:31" ht="119">
       <c r="A2" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B2" t="s">
         <v>68</v>
@@ -2299,10 +2308,10 @@
         <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="G2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="H2" t="s">
         <v>136</v>
@@ -2338,7 +2347,7 @@
         <v>65</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="V2">
         <v>5</v>
@@ -2356,7 +2365,7 @@
         <v>5</v>
       </c>
       <c r="AA2" s="9" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="AB2" s="9" t="s">
         <v>24</v>
@@ -2373,7 +2382,7 @@
     </row>
     <row r="3" spans="1:31" ht="153">
       <c r="A3" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B3" t="s">
         <v>67</v>
@@ -2424,13 +2433,13 @@
         <v>115</v>
       </c>
       <c r="S3" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="U3" s="2" t="s">
         <v>527</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>529</v>
       </c>
       <c r="V3">
         <v>5</v>
@@ -2454,7 +2463,7 @@
         <v>24</v>
       </c>
       <c r="AC3" s="10" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="AD3" t="s">
         <v>15</v>
@@ -2465,7 +2474,7 @@
     </row>
     <row r="4" spans="1:31" ht="85">
       <c r="A4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B4" t="s">
         <v>78</v>
@@ -2480,7 +2489,7 @@
         <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="G4" t="s">
         <v>7</v>
@@ -2519,10 +2528,10 @@
         <v>25</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="V4">
         <v>5</v>
@@ -2555,12 +2564,12 @@
         <v>131</v>
       </c>
     </row>
-    <row r="5" spans="1:31" ht="238">
+    <row r="5" spans="1:31" ht="221">
       <c r="A5" t="s">
         <v>518</v>
       </c>
       <c r="B5" t="s">
-        <v>519</v>
+        <v>544</v>
       </c>
       <c r="C5" t="s">
         <v>519</v>
@@ -2608,10 +2617,10 @@
         <v>25</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>520</v>
+        <v>543</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>521</v>
+        <v>542</v>
       </c>
       <c r="U5"/>
       <c r="V5">
@@ -2630,7 +2639,7 @@
         <v>5</v>
       </c>
       <c r="AA5" s="9" t="s">
-        <v>165</v>
+        <v>541</v>
       </c>
       <c r="AB5" s="9" t="s">
         <v>24</v>
@@ -2641,8 +2650,8 @@
       <c r="AD5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AE5" s="9" t="s">
-        <v>211</v>
+      <c r="AE5" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:31" ht="102">
@@ -6969,7 +6978,7 @@
     </row>
     <row r="55" spans="1:31" ht="119">
       <c r="A55" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B55" t="s">
         <v>66</v>
@@ -7017,13 +7026,13 @@
         <v>25</v>
       </c>
       <c r="S55" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="T55" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="U55" s="2" t="s">
         <v>532</v>
-      </c>
-      <c r="T55" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="U55" s="2" t="s">
-        <v>534</v>
       </c>
       <c r="V55" s="2">
         <v>2</v>
@@ -7041,7 +7050,7 @@
         <v>5</v>
       </c>
       <c r="AA55" s="9" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="AB55" s="9" t="s">
         <v>24</v>
@@ -8034,7 +8043,7 @@
     </row>
     <row r="72" spans="1:21" ht="17">
       <c r="A72" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B72" t="s">
         <v>77</v>
@@ -8132,7 +8141,7 @@
     </row>
     <row r="74" spans="1:21" ht="17">
       <c r="A74" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B74" t="s">
         <v>69</v>
@@ -8386,7 +8395,7 @@
     </row>
     <row r="79" spans="1:21" ht="17">
       <c r="A79" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>100</v>
